--- a/JavaEE/Jee_SSH相关/SSH.xlsx
+++ b/JavaEE/Jee_SSH相关/SSH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9947"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
   <si>
     <r>
       <rPr>
@@ -1177,6 +1177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对于一个</t>
     </r>
     <r>
@@ -1650,6 +1656,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">    Hibernate</t>
     </r>
     <r>
@@ -2009,6 +2021,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>持久化：将内存中的数据永久存储到关系型数据库中</t>
     </r>
     <r>
@@ -3608,6 +3626,226 @@
       </rPr>
       <t>的使用难度</t>
     </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的核心文件是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>applicationContext.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，所有的组件都在该文件中定义，包括数据源。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在此</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中被定义，在测试类中以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IoC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>容器获取（而不是直接</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IoC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AOP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的核心</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -6295,6 +6533,478 @@
       </rPr>
       <t xml:space="preserve">.
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一个完整的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架，包含有后台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代码，前台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jsp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图文件、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>web.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struts.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>等配置文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Struts2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;
+    Hibernate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ORM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>框架，一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hibernate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序可以只是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XXX.hbm.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件是把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类映射到数据表的映射文件，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Hibernate.cfg.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是连接数据库的配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;
+    Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目也只是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目，核心是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IoC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，核心配置文件是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>applicationContext.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，所有的组件都在该文件中定义，包括数据源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>. Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中被定义，在测试类中以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>IoC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方式通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>容器获取（而不是直接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出来）</t>
     </r>
   </si>
   <si>
@@ -12607,6 +13317,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hibernate</t>
     </r>
     <r>
@@ -17302,6 +18018,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>表单标签：提供和</t>
     </r>
     <r>
@@ -17365,6 +18087,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Hiebernate</t>
     </r>
     <r>
@@ -20473,6 +21201,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>持久化类规则：</t>
     </r>
     <r>
@@ -28409,6 +29143,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置文件有</t>
     </r>
     <r>
@@ -34726,6 +35466,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>注意点：</t>
     </r>
     <r>
@@ -36101,10 +36847,395 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖注入的两种方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>setter</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用无参构造方法或无参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工厂方法实例化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>后，再调用该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>setter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，需要在配置文件中将依赖项配置为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;property name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" ref="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>被依赖项</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">bean id "/&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;property name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>" value="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>属性值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"/&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构造方法注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF0033CC"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>带参数构造方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实例化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，每个参数代表一个依赖，在配置文件中将依赖项配置为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:
+&lt;constructor-arg index="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>构造方法参数索引</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"  value="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">"/&gt;
+----------------------------------------------------------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>验证依赖注入：</t>
@@ -38000,6 +39131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -38735,6 +39872,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -39469,6 +40612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -40253,6 +41402,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -44636,9 +45791,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -44738,15 +45893,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -44767,9 +45914,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -44783,14 +45936,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -44798,16 +45943,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -44821,9 +45959,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -44852,6 +45989,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -44859,15 +46012,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -44875,7 +46022,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -44947,16 +46102,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -45084,7 +46239,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -45096,13 +46317,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -45114,19 +46377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -45144,127 +46413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -45278,17 +46433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -45303,16 +46452,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -45334,17 +46483,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -45353,25 +46491,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -45383,10 +46538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -45395,133 +46550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -45677,7 +46832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5868670" y="20029170"/>
-          <a:ext cx="5151120" cy="2685415"/>
+          <a:ext cx="5804535" cy="2685415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45752,7 +46907,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16699230" y="3333750"/>
+          <a:off x="18553430" y="3333750"/>
           <a:ext cx="4337685" cy="2493010"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -45790,8 +46945,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16700500" y="16823055"/>
-          <a:ext cx="4406265" cy="2406015"/>
+          <a:off x="18554700" y="16823055"/>
+          <a:ext cx="4897120" cy="2406015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45828,8 +46983,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16705580" y="25300305"/>
-          <a:ext cx="4401185" cy="2332990"/>
+          <a:off x="18559780" y="25300305"/>
+          <a:ext cx="4892040" cy="2332990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45866,8 +47021,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16698595" y="20059650"/>
-          <a:ext cx="4408170" cy="2526665"/>
+          <a:off x="18552795" y="20059650"/>
+          <a:ext cx="4899025" cy="2526665"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45904,7 +47059,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16708120" y="40106600"/>
+          <a:off x="18562320" y="40106600"/>
           <a:ext cx="4398645" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -45946,8 +47101,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21130895" y="11572875"/>
-          <a:ext cx="4182745" cy="4750435"/>
+          <a:off x="23475950" y="11572875"/>
+          <a:ext cx="4650105" cy="4750435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -45984,7 +47139,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25380950" y="1963420"/>
+          <a:off x="28193365" y="1963420"/>
           <a:ext cx="2097405" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -46023,7 +47178,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5880100" y="25283795"/>
-          <a:ext cx="5147310" cy="3361690"/>
+          <a:ext cx="5800725" cy="3361690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -46060,7 +47215,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5895340" y="28794710"/>
+          <a:off x="6548755" y="28794710"/>
           <a:ext cx="5137785" cy="3404870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -46360,26 +47515,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="K11" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="85.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="64.3518518518518" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64.35" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="64.4166666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="61.3425925925926" style="1" customWidth="1"/>
-    <col min="8" max="8" width="63.2685185185185" style="1" customWidth="1"/>
-    <col min="9" max="9" width="63.0740740740741" style="1" customWidth="1"/>
-    <col min="10" max="10" width="54.1296296296296" style="1" customWidth="1"/>
-    <col min="11" max="11" width="54.3148148148148" style="1" customWidth="1"/>
-    <col min="12" max="14" width="54.2222222222222" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="61.3416666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="63.2666666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="63.075" style="1" customWidth="1"/>
+    <col min="10" max="10" width="54.1333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="54.3166666666667" style="1" customWidth="1"/>
+    <col min="12" max="14" width="54.225" style="1" customWidth="1"/>
+    <col min="15" max="15" width="45.0916666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="54.0333333333333" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:14">
@@ -46420,7 +47577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" ht="235" customHeight="1" spans="1:14">
+    <row r="2" ht="235" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -46457,131 +47614,134 @@
       <c r="N2" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="P2" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" ht="300" customHeight="1" spans="1:14">
       <c r="A3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="348" customHeight="1" spans="1:14">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="7"/>
     </row>
     <row r="5" ht="221" customHeight="1" spans="1:14">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="193" customHeight="1" spans="1:14">
       <c r="A6" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -46590,101 +47750,101 @@
     </row>
     <row r="7" ht="252" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" ht="214" customHeight="1" spans="1:14">
       <c r="A8" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="200" customHeight="1" spans="1:14">
       <c r="A9" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" ht="187" customHeight="1" spans="1:14">
       <c r="A10" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="2"/>
       <c r="H10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7"/>
     </row>
@@ -46692,36 +47852,36 @@
       <c r="A11" s="12"/>
       <c r="B11" s="2"/>
       <c r="F11" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>92</v>
+      <c r="K11" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" ht="214" customHeight="1" spans="1:13">
       <c r="A12" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="2"/>
       <c r="F12" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="7"/>
@@ -46730,14 +47890,14 @@
     </row>
     <row r="13" ht="220" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -46745,67 +47905,67 @@
     </row>
     <row r="14" ht="182" customHeight="1" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" ht="202" customHeight="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="174" customHeight="1" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" ht="129" customHeight="1" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" ht="360" customHeight="1" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" ht="408" customHeight="1" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J19" s="7"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" ht="249" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -46844,7 +48004,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -46861,7 +48021,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/JavaEE/Jee_SSH相关/SSH.xlsx
+++ b/JavaEE/Jee_SSH相关/SSH.xlsx
@@ -31554,12 +31554,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -32548,151 +32542,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若应用中有很多</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Bean</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，会导致</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>XML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>配置文件臃肿，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>JDK1.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以后提供了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Annotation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Spring 3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中也定义了一系列的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Annotation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，如：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -32776,7 +32625,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>，并且可以作用在任何层次，使用时只需要将该注解标注在相应类上即可</t>
+      <t>，并且可以作用在任何层次</t>
     </r>
     <r>
       <rPr>
@@ -33144,37 +32993,145 @@
       <rPr>
         <sz val="8"/>
         <color rgb="FF00B050"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Repository/@Service/@Constroller</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>虽然</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作用与</t>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Repository</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF00B050"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Component</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
         <sz val="8"/>
         <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相同，只不过用途更加清晰</t>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Constroller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@component</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相同，但为了使标注本身用途更加清晰，通常使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Repository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>@Constroller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分别对实现类进行标注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -33232,16 +33189,16 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>的属性变量、属性的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Setter</t>
+      <t>的属性、属性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Set</t>
     </r>
     <r>
       <rPr>
@@ -33478,24 +33435,6 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>Spring</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>将</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
       <t>name</t>
     </r>
     <r>
@@ -33505,7 +33444,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>属性解析为</t>
+      <t>为</t>
     </r>
     <r>
       <rPr>
@@ -33541,7 +33480,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>属性解析为</t>
+      <t>为</t>
     </r>
     <r>
       <rPr>
@@ -33754,7 +33693,7 @@
         <rFont val="Consolas"/>
         <charset val="134"/>
       </rPr>
-      <t>@Autowired</t>
+      <t xml:space="preserve">@Autowired </t>
     </r>
     <r>
       <rPr>
@@ -33827,151 +33766,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虽然</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Constroller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@component</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相同，但为了使标注本身用途更加清晰，通常使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Repository</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>@Constroller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别对实现类进行标注</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">.
 </t>
     </r>
     <r>
@@ -36847,6 +36641,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Spring</t>
     </r>
     <r>
@@ -45791,9 +45592,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -45893,7 +45694,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45914,15 +45723,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45936,6 +45739,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -45943,9 +45754,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45959,8 +45777,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45989,22 +45808,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -46014,23 +45817,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46200,13 +46001,13 @@
     <font>
       <sz val="8"/>
       <color rgb="FF00B050"/>
-      <name val="Consolas"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF00B050"/>
-      <name val="宋体"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -46239,13 +46040,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46257,13 +46076,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46281,7 +46100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46293,7 +46118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46305,31 +46130,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46347,31 +46166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46383,31 +46178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46423,6 +46212,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -46433,11 +46234,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -46452,16 +46259,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -46483,6 +46290,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -46491,42 +46309,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -46538,10 +46339,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -46550,133 +46351,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -47517,8 +47318,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="L10" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/JavaEE/Jee_SSH相关/SSH.xlsx
+++ b/JavaEE/Jee_SSH相关/SSH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <r>
       <rPr>
@@ -606,6 +606,20 @@
         <charset val="134"/>
       </rPr>
       <t>类</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>16 Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事务管理</t>
     </r>
   </si>
   <si>
@@ -6533,6 +6547,296 @@
       </rPr>
       <t xml:space="preserve">.
 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>事务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个接口：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+    PlatformTransactionManager
+    TransactionDefinition
+    TransactionStatus
+    XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件中配置事务的详细信息，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将这些信息封装到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象中，通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>PlatformTransactionManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>getTransaction()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就可以获取代表事务状态的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionStatus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象以进行下一步操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.
+Spring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事务管理有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种：声明式事务管理和编程式事务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明式事务管理：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置文件中定义数据源事务管理器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bean(class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>DataSourceTransactionManager)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，然后将事务管理器注入到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionProxyFactoryBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionProxyFactoryBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成代理进行事务管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -12560,6 +12864,400 @@
       </rPr>
       <t>");
  }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>配置文件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 
+ &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引入外部配置文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+ &lt;context:property-placeholder location="classpath:c3p0-db.properties" /&gt;
+ &lt;bean id="dataSource" class="com.mchange.v2.c3p0.ComboPooledDataSource"&gt;
+  &lt;property name="driverClass" value="${jdbc.driverClass}"&gt;&lt;/property&gt;
+  &lt;property name="jdbcUrl" value="${jdbc.jdbcUrl}"&gt;&lt;/property&gt;
+  &lt;property name="user" value="${jdbc.user}"&gt;&lt;/property&gt;
+  &lt;property name="password" value="${jdbc.password}"&gt;&lt;/property&gt;
+ &lt;/bean&gt;
+ &lt;bean id="jdbcTemplate" class="org.springframework.jdbc.core.JdbcTemplate"&gt;
+  &lt;property name="dataSource" ref="dataSource"&gt;&lt;/property&gt;
+ &lt;/bean&gt;
+ &lt;bean id="accountDao" class="dao.AccountDaoImpl"&gt;
+  &lt;property name="jdbcTemplate" ref="jdbcTemplate"&gt;&lt;/property&gt;
+ &lt;/bean&gt;
+ &lt;bean id="accountService" class="service.AccountServiceImpl"&gt;
+  &lt;property name="accountDao" ref="accountDao"&gt;&lt;/property&gt;
+ &lt;/bean&gt;
+ &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明式事务管理定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据源事务管理器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖于数据源</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+ &lt;bean id="transactionManager" class="org.springframework.jdbc.datasource.DataSourceTransactionManager"&gt;
+  &lt;property name="dataSource" ref="dataSource"&gt;&lt;/property&gt;
+ &lt;/bean&gt;
+ &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>将数据源事务管理器注入到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TransactionProxyFactoryBean </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionProxyFactoryBean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生成代理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+ &lt;bean id="accountServiceProxy" class="org.springframework.transaction.interceptor.TransactionProxyFactoryBean"&gt;
+  &lt;!-- transactionManager</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖注入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+  &lt;property name="transactionManager" ref="transactionManager"&gt;&lt;/property&gt;
+  &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置需要进行事务管理的目标类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+  &lt;property name="target" ref="accountService"&gt;&lt;/property&gt;
+  &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代理类需要实现的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+  &lt;property name="proxyInterfaces" value="service.AccountService"&gt;&lt;/property&gt;
+  &lt;!-- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设置事务相关属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赋值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+  &lt;property name="transactionAttributes"&gt;
+   &lt;props&gt;
+    &lt;!-- key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示对目标的哪些方法进行增强</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, save*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>表示以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>save</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, 
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标签中的文本按照固定格式编写事务的详情及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TransactionDefinition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> --&gt;
+    &lt;prop key="*"&gt;PROPAGATION_REQUIRED,ISOLATION_REPEATABLE_READ&lt;/prop&gt;
+   &lt;/props&gt;
+  &lt;/property&gt;
+ &lt;/bean&gt;</t>
     </r>
   </si>
   <si>
@@ -31554,6 +32252,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>Bean</t>
     </r>
     <r>
@@ -45592,9 +46296,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -45694,15 +46398,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45723,9 +46426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45739,14 +46441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -45754,16 +46448,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45777,9 +46464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -45808,6 +46494,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -45817,21 +46519,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46040,13 +46744,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46058,31 +46780,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46100,13 +46822,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46118,25 +46852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46154,43 +46870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46202,13 +46882,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46220,7 +46924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46234,17 +46938,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -46259,16 +46957,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -46290,17 +46988,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -46309,25 +46996,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -46339,10 +47043,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -46351,31 +47055,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -46384,104 +47088,104 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -46530,8 +47234,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -47318,8 +48031,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="L10" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="O3" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -47335,12 +48048,12 @@
     <col min="10" max="10" width="54.1333333333333" style="1" customWidth="1"/>
     <col min="11" max="11" width="54.3166666666667" style="1" customWidth="1"/>
     <col min="12" max="14" width="54.225" style="1" customWidth="1"/>
-    <col min="15" max="15" width="45.0916666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="76.725" style="1" customWidth="1"/>
     <col min="16" max="16" width="54.0333333333333" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:14">
+    <row r="1" ht="27" customHeight="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -47377,172 +48090,182 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="235" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" ht="300" customHeight="1" spans="1:14">
+    <row r="3" ht="300" customHeight="1" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" ht="348" customHeight="1" spans="1:14">
+    <row r="4" ht="348" customHeight="1" spans="1:15">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
-      <c r="M4" s="16" t="s">
-        <v>45</v>
+      <c r="M4" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="N4" s="7"/>
+      <c r="O4" s="19"/>
     </row>
     <row r="5" ht="221" customHeight="1" spans="1:14">
       <c r="A5" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="193" customHeight="1" spans="1:14">
       <c r="A6" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -47551,101 +48274,101 @@
     </row>
     <row r="7" ht="252" customHeight="1" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
-      <c r="M7" s="17" t="s">
-        <v>70</v>
+      <c r="M7" s="20" t="s">
+        <v>73</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" ht="214" customHeight="1" spans="1:14">
       <c r="A8" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="17" t="s">
-        <v>75</v>
+      <c r="N8" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="9" ht="200" customHeight="1" spans="1:14">
       <c r="A9" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" ht="187" customHeight="1" spans="1:14">
       <c r="A10" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="H10" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7"/>
     </row>
@@ -47653,36 +48376,36 @@
       <c r="A11" s="12"/>
       <c r="B11" s="2"/>
       <c r="F11" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>93</v>
+      <c r="K11" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N11" s="7"/>
     </row>
     <row r="12" ht="214" customHeight="1" spans="1:13">
       <c r="A12" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="F12" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="7"/>
@@ -47691,14 +48414,14 @@
     </row>
     <row r="13" ht="220" customHeight="1" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13" s="2"/>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -47706,71 +48429,71 @@
     </row>
     <row r="14" ht="182" customHeight="1" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
     <row r="15" ht="202" customHeight="1" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="174" customHeight="1" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7"/>
     </row>
     <row r="17" ht="129" customHeight="1" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" ht="360" customHeight="1" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J18" s="7"/>
       <c r="L18" s="7"/>
     </row>
     <row r="19" ht="408" customHeight="1" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J19" s="7"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" ht="249" customHeight="1" spans="1:1">
       <c r="A20" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="J11:J12"/>
@@ -47788,6 +48511,7 @@
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="N8:N10"/>
+    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/JavaEE/Jee_SSH相关/SSH.xlsx
+++ b/JavaEE/Jee_SSH相关/SSH.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,6 +610,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>16 Spring</t>
     </r>
     <r>
@@ -6551,6 +6557,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务管理</t>
     </r>
     <r>
@@ -7146,7 +7158,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>项目也只是</t>
+      <t>项目只是</t>
     </r>
     <r>
       <rPr>
@@ -12868,6 +12880,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>配置文件：</t>
     </r>
     <r>
@@ -24714,7 +24732,7 @@
       <rPr>
         <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Consolas"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>验证</t>
@@ -26099,7 +26117,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-&lt;bean id="hello" class=".../Hello" scope="singletom"/&gt;
+&lt;bean id="hello" class=".../Hello" scope="singleton"/&gt;
 =&gt;</t>
     </r>
     <r>
@@ -38038,7 +38056,25 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> --&gt;
-        &lt;property name="userDaoImpl" ref="userDaoImpl" /&gt; 
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">&lt;property name="userDaoImpl" ref="userDaoImpl" /&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
     &lt;/bean&gt;
 &lt;property&gt;</t>
     </r>
@@ -45676,7 +45712,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45685,7 +45721,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45694,7 +45730,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45704,7 +45740,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45713,7 +45749,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45722,7 +45758,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45731,7 +45767,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45740,7 +45776,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45749,7 +45785,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45758,7 +45794,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45767,7 +45803,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45776,7 +45812,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45785,7 +45821,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45794,7 +45830,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45803,7 +45839,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45812,7 +45848,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45821,7 +45857,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45831,7 +45867,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45840,7 +45876,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45850,7 +45886,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45859,7 +45895,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45869,7 +45905,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45878,7 +45914,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45887,7 +45923,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45896,7 +45932,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45905,7 +45941,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45914,7 +45950,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45923,7 +45959,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45932,7 +45968,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45941,7 +45977,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45950,7 +45986,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45960,7 +45996,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45969,7 +46005,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45978,7 +46014,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -45987,7 +46023,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -45996,7 +46032,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -46005,7 +46041,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -46014,7 +46050,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -46023,7 +46059,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -46033,7 +46069,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -46042,7 +46078,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -46051,7 +46087,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -46060,7 +46096,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -46070,7 +46106,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -46079,7 +46115,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -46094,7 +46130,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -46103,7 +46139,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Consolas"/>
         <charset val="134"/>
@@ -46111,7 +46147,215 @@
       <t xml:space="preserve">
     &lt;action name="loginAction" class="cn.itcast.action.LoginAction"&gt;
         &lt;result&gt;/success.jsp&lt;/result&gt;
-    &lt;/action&gt;</t>
+    &lt;/action&gt;
+--------------------------------------------------------------------------------------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>struts.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中采用通配符映射达到在一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中处理多个请求的效果：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;action name="*User_*" class="com.example.action.LogonAction" method="{1}" &gt;            
+    &lt;result name="success"&gt;/{2}.jsp&lt;/result&gt;  
+    &lt;result name="error"&gt;/error.jsp&lt;/result&gt;  
+&lt;/action&gt;
+//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>logon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，执行成功后返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;form id="form" action="logonUser_index" method="post"&gt;
+//</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>register</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，执行成功后返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>logon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;form id="form" action="registerUser_logon" method="post"&gt;</t>
     </r>
   </si>
   <si>
@@ -46295,10 +46539,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="66">
     <font>
@@ -46398,36 +46642,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46441,6 +46656,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -46448,7 +46716,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -46464,54 +46731,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46527,15 +46749,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -46744,72 +46988,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -46822,7 +47000,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46834,7 +47072,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46846,55 +47138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46906,25 +47162,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -46935,6 +47179,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -46957,45 +47255,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -47005,21 +47264,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -47043,10 +47287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -47055,137 +47299,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -47232,12 +47476,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -47320,15 +47558,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>5868670</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
+      <xdr:colOff>6512560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3185160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5139055</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2699385</xdr:rowOff>
+      <xdr:rowOff>2670175</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -47345,7 +47583,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5868670" y="20029170"/>
+          <a:off x="6512560" y="19999960"/>
           <a:ext cx="5804535" cy="2685415"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -47434,15 +47672,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>8255</xdr:rowOff>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4906645</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2414270</xdr:rowOff>
+      <xdr:rowOff>2417445</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -47459,7 +47697,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18554700" y="16823055"/>
+          <a:off x="18552795" y="16826230"/>
           <a:ext cx="4897120" cy="2406015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -47665,16 +47903,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5880100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32385</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
+      <xdr:rowOff>18415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5146675</xdr:colOff>
+      <xdr:colOff>5702300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>997585</xdr:rowOff>
+      <xdr:rowOff>1004570</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -47691,8 +47929,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5880100" y="25283795"/>
-          <a:ext cx="5800725" cy="3361690"/>
+          <a:off x="6566535" y="25291415"/>
+          <a:ext cx="5669915" cy="3361055"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -48031,8 +48269,8 @@
   <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="O3" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -48131,7 +48369,7 @@
       <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -48171,7 +48409,7 @@
       <c r="N3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -48206,11 +48444,11 @@
       <c r="L4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>48</v>
       </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="19"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" ht="221" customHeight="1" spans="1:14">
       <c r="A5" s="12" t="s">
@@ -48292,13 +48530,13 @@
       <c r="J7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="14" t="s">
         <v>71</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="18" t="s">
         <v>73</v>
       </c>
       <c r="N7" s="7"/>
@@ -48319,7 +48557,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -48387,7 +48625,7 @@
       <c r="J11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="18" t="s">
         <v>96</v>
       </c>
       <c r="L11" s="7"/>
@@ -48481,7 +48719,7 @@
       <c r="L18" s="7"/>
     </row>
     <row r="19" ht="408" customHeight="1" spans="1:12">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="5" t="s">
         <v>116</v>
       </c>
       <c r="J19" s="7"/>
